--- a/tools/Розрахунок швидкостей.xlsx
+++ b/tools/Розрахунок швидкостей.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1 передача</t>
   </si>
@@ -39,13 +39,25 @@
   </si>
   <si>
     <t>Обери мотора</t>
+  </si>
+  <si>
+    <t>Швидкість 1 передачі</t>
+  </si>
+  <si>
+    <t>Швидкість 2 передачі</t>
+  </si>
+  <si>
+    <t>Шестерні</t>
+  </si>
+  <si>
+    <t>Розрахукові значення</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +66,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +104,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -357,85 +409,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B5" s="1">
         <v>1.5</v>
       </c>
-      <c r="C2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>C2/B2</f>
+      <c r="D5" s="3">
+        <f>C5/B5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6/B6</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
         <v>80</v>
       </c>
-      <c r="G2">
-        <f>F2*D2</f>
+      <c r="C9" s="3">
+        <f>B9*D5</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="H2">
-        <f>F2/B2</f>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <f>C3/B3</f>
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <f>G2/D3</f>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <f>C9/D6</f>
         <v>35.55555555555555</v>
       </c>
-      <c r="G3">
-        <f>F3*D3</f>
+      <c r="C10" s="3">
+        <f>B10*D6</f>
         <v>53.333333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6">
-        <f>F3/G3*100</f>
-        <v>66.666666666666657</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>